--- a/code/RCMGUI_Issues.xlsx
+++ b/code/RCMGUI_Issues.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/frazibw1/Documents/RCM_Measurements/code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63533A6E-6ADE-874D-8EA3-EF4B27E9F37A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7892021-2F1B-5241-B023-9BEF15AC538B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16700" xr2:uid="{803B860E-67BF-7649-8198-70C53CB3C689}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="53">
   <si>
     <t>Issue #</t>
   </si>
@@ -181,6 +181,9 @@
   </si>
   <si>
     <t>Move Settings data logging to separate files for clarity</t>
+  </si>
+  <si>
+    <t>Have Calibration set the mode properly</t>
   </si>
 </sst>
 </file>
@@ -547,8 +550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{019EAE55-1733-DF40-9D68-6F8D4E15BE5E}">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="118" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="118" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1175,6 +1178,15 @@
       <c r="A44" s="2">
         <v>43</v>
       </c>
+      <c r="B44" t="s">
+        <v>52</v>
+      </c>
+      <c r="C44" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" s="1">
+        <v>43451</v>
+      </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="2">

--- a/code/RCMGUI_Issues.xlsx
+++ b/code/RCMGUI_Issues.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/frazibw1/Documents/RCM_Measurements/code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7892021-2F1B-5241-B023-9BEF15AC538B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B82F59CF-8DC6-7841-854C-BACDE99340C6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16700" xr2:uid="{803B860E-67BF-7649-8198-70C53CB3C689}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="56">
   <si>
     <t>Issue #</t>
   </si>
@@ -156,9 +156,6 @@
     <t>Query Stepper Motor device string</t>
   </si>
   <si>
-    <t>Empty string returned</t>
-  </si>
-  <si>
     <t>GUI crashing on exiting</t>
   </si>
   <si>
@@ -184,6 +181,18 @@
   </si>
   <si>
     <t>Have Calibration set the mode properly</t>
+  </si>
+  <si>
+    <t>Need to reset the parameters of the PNA after performing a cal - should be the start of measurement</t>
+  </si>
+  <si>
+    <t>Add error icon</t>
+  </si>
+  <si>
+    <t>Empty string returned, no true device id available</t>
+  </si>
+  <si>
+    <t>Trying to stop and delete the stepper motor timer caused the crash</t>
   </si>
 </sst>
 </file>
@@ -550,13 +559,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{019EAE55-1733-DF40-9D68-6F8D4E15BE5E}">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="118" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="118" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="80.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="86.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="55.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1059,7 +1068,7 @@
         <v>43451</v>
       </c>
       <c r="E35" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -1067,13 +1076,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C36" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D36" s="1">
         <v>43451</v>
+      </c>
+      <c r="E36" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -1081,7 +1093,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C37" t="s">
         <v>6</v>
@@ -1095,7 +1107,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C38" t="s">
         <v>10</v>
@@ -1109,7 +1121,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C39" t="s">
         <v>6</v>
@@ -1123,7 +1135,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C40" t="s">
         <v>10</v>
@@ -1137,7 +1149,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C41" t="s">
         <v>10</v>
@@ -1151,7 +1163,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C42" t="s">
         <v>10</v>
@@ -1165,7 +1177,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C43" t="s">
         <v>10</v>
@@ -1179,7 +1191,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C44" t="s">
         <v>10</v>
@@ -1192,10 +1204,28 @@
       <c r="A45" s="2">
         <v>44</v>
       </c>
+      <c r="B45" t="s">
+        <v>52</v>
+      </c>
+      <c r="C45" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" s="1">
+        <v>43451</v>
+      </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>53</v>
+      </c>
+      <c r="C46" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46" s="1">
+        <v>43451</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">

--- a/code/RCMGUI_Issues.xlsx
+++ b/code/RCMGUI_Issues.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/frazibw1/Documents/RCM_Measurements/code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B82F59CF-8DC6-7841-854C-BACDE99340C6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{667B210E-56B9-7346-8305-9658C15FCBEE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16700" xr2:uid="{803B860E-67BF-7649-8198-70C53CB3C689}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="57">
   <si>
     <t>Issue #</t>
   </si>
@@ -193,6 +193,9 @@
   </si>
   <si>
     <t>Trying to stop and delete the stepper motor timer caused the crash</t>
+  </si>
+  <si>
+    <t>Allow GUI to select the calibration file on the PNA</t>
   </si>
 </sst>
 </file>
@@ -559,8 +562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{019EAE55-1733-DF40-9D68-6F8D4E15BE5E}">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="118" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="118" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1232,6 +1235,15 @@
       <c r="A47" s="2">
         <v>46</v>
       </c>
+      <c r="B47" t="s">
+        <v>56</v>
+      </c>
+      <c r="C47" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47" s="1">
+        <v>43451</v>
+      </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="2">

--- a/code/RCMGUI_Issues.xlsx
+++ b/code/RCMGUI_Issues.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/frazibw1/Documents/RCM_Measurements/code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{667B210E-56B9-7346-8305-9658C15FCBEE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCFC5893-DB0C-2940-A8D0-D585AB5CBA30}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16700" xr2:uid="{803B860E-67BF-7649-8198-70C53CB3C689}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="58">
   <si>
     <t>Issue #</t>
   </si>
@@ -196,6 +196,9 @@
   </si>
   <si>
     <t>Allow GUI to select the calibration file on the PNA</t>
+  </si>
+  <si>
+    <t>Add measurement realization counter to the status bar</t>
   </si>
 </sst>
 </file>
@@ -563,7 +566,7 @@
   <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A27" zoomScale="118" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1249,6 +1252,15 @@
       <c r="A48" s="2">
         <v>47</v>
       </c>
+      <c r="B48" t="s">
+        <v>57</v>
+      </c>
+      <c r="C48" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" s="1">
+        <v>43451</v>
+      </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" s="2">

--- a/code/RCMGUI_Issues.xlsx
+++ b/code/RCMGUI_Issues.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/frazibw1/Documents/RCM_Measurements/code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCFC5893-DB0C-2940-A8D0-D585AB5CBA30}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{606DD94B-4338-C941-970A-20B7B7919B07}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16700" xr2:uid="{803B860E-67BF-7649-8198-70C53CB3C689}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="59">
   <si>
     <t>Issue #</t>
   </si>
@@ -199,6 +199,9 @@
   </si>
   <si>
     <t>Add measurement realization counter to the status bar</t>
+  </si>
+  <si>
+    <t>Change gated measurement name to real and imag are on the end to simplify Matlab data loading</t>
   </si>
 </sst>
 </file>
@@ -566,7 +569,7 @@
   <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A27" zoomScale="118" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1262,17 +1265,26 @@
         <v>43451</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>58</v>
+      </c>
+      <c r="C49" t="s">
+        <v>10</v>
+      </c>
+      <c r="D49" s="1">
+        <v>43451</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>50</v>
       </c>

--- a/code/RCMGUI_Issues.xlsx
+++ b/code/RCMGUI_Issues.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/frazibw1/Documents/RCM_Measurements/code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{606DD94B-4338-C941-970A-20B7B7919B07}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42235B84-A03A-304D-BB80-6E824429F26F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16700" xr2:uid="{803B860E-67BF-7649-8198-70C53CB3C689}"/>
+    <workbookView xWindow="36680" yWindow="-1100" windowWidth="29160" windowHeight="19120" xr2:uid="{803B860E-67BF-7649-8198-70C53CB3C689}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$51</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="66">
   <si>
     <t>Issue #</t>
   </si>
@@ -202,13 +205,34 @@
   </si>
   <si>
     <t>Change gated measurement name to real and imag are on the end to simplify Matlab data loading</t>
+  </si>
+  <si>
+    <t>Change Matlab Settings logging to HDF5 file to use Settings group to match C++ version</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Moderate</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Change Matlab to read the new Settings/config file</t>
+  </si>
+  <si>
+    <t>Change Matlab print Settings for the new Settings structure</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -224,16 +248,53 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -241,22 +302,127 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -566,730 +732,977 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{019EAE55-1733-DF40-9D68-6F8D4E15BE5E}">
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="118" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="118" workbookViewId="0">
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="86.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="55.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="26"/>
+    <col min="2" max="2" width="86.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.83203125" style="3"/>
+    <col min="5" max="5" width="44.1640625" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
+      <c r="F1" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1">
+      <c r="C2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="6">
         <v>43450</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
+      <c r="F2" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1">
+      <c r="C3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="6">
         <v>43450</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+      <c r="E3" s="5"/>
+      <c r="F3" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="1">
-        <v>43451</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
+      <c r="C4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="10">
+        <v>43451</v>
+      </c>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="1">
+      <c r="C5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="6">
         <v>43450</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
+      <c r="E5" s="5"/>
+      <c r="F5" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="11">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="1">
-        <v>43451</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="C6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="13">
+        <v>43451</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="1">
+      <c r="C7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="6">
         <v>43450</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
+      <c r="F7" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="1">
+      <c r="C8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="6">
         <v>43450</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
+      <c r="E8" s="5"/>
+      <c r="F8" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="1">
+      <c r="C9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="6">
         <v>43450</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
+      <c r="E9" s="5"/>
+      <c r="F9" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="1">
+      <c r="C10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="6">
         <v>43450</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="E10" s="5"/>
+      <c r="F10" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="1">
-        <v>43451</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
+      <c r="C11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="6">
+        <v>43451</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="1">
-        <v>43451</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
+      <c r="C12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="6">
+        <v>43451</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="8">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="1">
-        <v>43451</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
+      <c r="C13" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="10">
+        <v>43451</v>
+      </c>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="8">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="1">
-        <v>43451</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
+      <c r="C14" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="10">
+        <v>43451</v>
+      </c>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="8">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="1">
-        <v>43451</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
+      <c r="C15" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="10">
+        <v>43451</v>
+      </c>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="11">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="1">
-        <v>43451</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
+      <c r="C16" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="13">
+        <v>43451</v>
+      </c>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="1">
+      <c r="C17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="6">
         <v>43450</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
+      <c r="E17" s="5"/>
+      <c r="F17" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="11">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="1">
-        <v>43451</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
+      <c r="C18" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="13">
+        <v>43451</v>
+      </c>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="11">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="1">
-        <v>43451</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
+      <c r="C19" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="13">
+        <v>43451</v>
+      </c>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C20" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="1">
+      <c r="C20" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="6">
         <v>43450</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
+      <c r="E20" s="5"/>
+      <c r="F20" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="11">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C21" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="1">
-        <v>43451</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="2">
+      <c r="C21" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="13">
+        <v>43451</v>
+      </c>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="11">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" s="1">
-        <v>43451</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="2">
+      <c r="C22" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="13">
+        <v>43451</v>
+      </c>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="14">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" s="1">
-        <v>43451</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="2">
+      <c r="C23" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="16">
+        <v>43451</v>
+      </c>
+      <c r="E23" s="15"/>
+      <c r="F23" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="17">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C24" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="1">
-        <v>43451</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="2">
+      <c r="C24" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="19">
+        <v>43451</v>
+      </c>
+      <c r="E24" s="18"/>
+      <c r="F24" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="17">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C25" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25" s="1">
-        <v>43451</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="2">
+      <c r="C25" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="19">
+        <v>43451</v>
+      </c>
+      <c r="E25" s="18"/>
+      <c r="F25" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="4">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="1">
+      <c r="C26" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="6">
         <v>43450</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="2">
+      <c r="E26" s="5"/>
+      <c r="F26" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="11">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C27" t="s">
-        <v>10</v>
-      </c>
-      <c r="D27" s="1">
-        <v>43451</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="2">
+      <c r="C27" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="13">
+        <v>43451</v>
+      </c>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="4">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C28" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28" s="1">
-        <v>43451</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="2">
+      <c r="C28" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="6">
+        <v>43452</v>
+      </c>
+      <c r="E28" s="5"/>
+      <c r="F28" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="8">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C29" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29" s="1">
-        <v>43451</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="2">
+      <c r="C29" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="10">
+        <v>43451</v>
+      </c>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" s="20">
         <v>29</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C30" t="s">
-        <v>10</v>
-      </c>
-      <c r="D30" s="1">
-        <v>43451</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="2">
+      <c r="C30" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="22">
+        <v>43451</v>
+      </c>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="20">
         <v>30</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C31" t="s">
-        <v>10</v>
-      </c>
-      <c r="D31" s="1">
-        <v>43451</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="2">
+      <c r="C31" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="22">
+        <v>43451</v>
+      </c>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" s="11">
         <v>31</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C32" t="s">
-        <v>10</v>
-      </c>
-      <c r="D32" s="1">
-        <v>43451</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="2">
+      <c r="C32" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="13">
+        <v>43451</v>
+      </c>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" s="4">
         <v>32</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C33" t="s">
-        <v>6</v>
-      </c>
-      <c r="D33" s="1">
-        <v>43451</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="2">
+      <c r="C33" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="6">
+        <v>43451</v>
+      </c>
+      <c r="E33" s="5"/>
+      <c r="F33" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" s="11">
         <v>33</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C34" t="s">
-        <v>10</v>
-      </c>
-      <c r="D34" s="1">
-        <v>43451</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="2">
+      <c r="C34" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="13">
+        <v>43451</v>
+      </c>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" s="4">
         <v>34</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C35" t="s">
-        <v>6</v>
-      </c>
-      <c r="D35" s="1">
-        <v>43451</v>
-      </c>
-      <c r="E35" t="s">
+      <c r="C35" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="6">
+        <v>43451</v>
+      </c>
+      <c r="E35" s="5" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="2">
+      <c r="F35" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A36" s="4">
         <v>35</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C36" t="s">
-        <v>6</v>
-      </c>
-      <c r="D36" s="1">
-        <v>43451</v>
-      </c>
-      <c r="E36" t="s">
+      <c r="C36" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="6">
+        <v>43451</v>
+      </c>
+      <c r="E36" s="5" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="2">
+      <c r="F36" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37" s="4">
         <v>36</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C37" t="s">
-        <v>6</v>
-      </c>
-      <c r="D37" s="1">
-        <v>43451</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="2">
+      <c r="C37" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="6">
+        <v>43451</v>
+      </c>
+      <c r="E37" s="5"/>
+      <c r="F37" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A38" s="11">
         <v>37</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C38" t="s">
-        <v>10</v>
-      </c>
-      <c r="D38" s="1">
-        <v>43451</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="2">
+      <c r="C38" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="13">
+        <v>43451</v>
+      </c>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39" s="4">
         <v>38</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C39" t="s">
-        <v>6</v>
-      </c>
-      <c r="D39" s="1">
-        <v>43451</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="2">
+      <c r="C39" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="6">
+        <v>43451</v>
+      </c>
+      <c r="E39" s="5"/>
+      <c r="F39" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A40" s="8">
         <v>39</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C40" t="s">
-        <v>10</v>
-      </c>
-      <c r="D40" s="1">
-        <v>43451</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="2">
+      <c r="C40" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="10">
+        <v>43451</v>
+      </c>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A41" s="11">
         <v>40</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="C41" t="s">
-        <v>10</v>
-      </c>
-      <c r="D41" s="1">
-        <v>43451</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="2">
+      <c r="C41" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" s="13">
+        <v>43451</v>
+      </c>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A42" s="8">
         <v>41</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C42" t="s">
-        <v>10</v>
-      </c>
-      <c r="D42" s="1">
-        <v>43451</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="2">
+      <c r="C42" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" s="10">
+        <v>43451</v>
+      </c>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A43" s="8">
         <v>42</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C43" t="s">
-        <v>10</v>
-      </c>
-      <c r="D43" s="1">
-        <v>43451</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="2">
+      <c r="C43" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" s="10">
+        <v>43451</v>
+      </c>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A44" s="11">
         <v>43</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C44" t="s">
-        <v>10</v>
-      </c>
-      <c r="D44" s="1">
-        <v>43451</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="2">
+      <c r="C44" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" s="13">
+        <v>43451</v>
+      </c>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A45" s="20">
         <v>44</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C45" t="s">
-        <v>10</v>
-      </c>
-      <c r="D45" s="1">
-        <v>43451</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="2">
+      <c r="C45" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" s="22">
+        <v>43451</v>
+      </c>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A46" s="11">
         <v>45</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C46" t="s">
-        <v>10</v>
-      </c>
-      <c r="D46" s="1">
-        <v>43451</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="2">
+      <c r="C46" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46" s="13">
+        <v>43451</v>
+      </c>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A47" s="11">
         <v>46</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C47" t="s">
-        <v>10</v>
-      </c>
-      <c r="D47" s="1">
-        <v>43451</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="2">
+      <c r="C47" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47" s="13">
+        <v>43451</v>
+      </c>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A48" s="11">
         <v>47</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C48" t="s">
-        <v>10</v>
-      </c>
-      <c r="D48" s="1">
-        <v>43451</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="2">
+      <c r="C48" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" s="13">
+        <v>43451</v>
+      </c>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A49" s="4">
         <v>48</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C49" t="s">
-        <v>10</v>
-      </c>
-      <c r="D49" s="1">
-        <v>43451</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="2">
+      <c r="C49" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49" s="6">
+        <v>43452</v>
+      </c>
+      <c r="E49" s="5"/>
+      <c r="F49" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A50" s="27">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="2">
+      <c r="B50" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50" s="28">
+        <v>43452</v>
+      </c>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A51" s="27">
         <v>50</v>
       </c>
+      <c r="B51" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" s="28">
+        <v>43452</v>
+      </c>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A52" s="8">
+        <v>51</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D52" s="10">
+        <v>43452</v>
+      </c>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="25"/>
+      <c r="B53" s="23"/>
+      <c r="C53" s="23"/>
+      <c r="D53" s="23"/>
+      <c r="E53" s="23"/>
+      <c r="F53" s="23"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F51" xr:uid="{2987A725-2C0C-1844-ABCD-954E1C3F77D6}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/code/RCMGUI_Issues.xlsx
+++ b/code/RCMGUI_Issues.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/frazibw1/Documents/RCM_Measurements/code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42235B84-A03A-304D-BB80-6E824429F26F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E4A9E26-7477-5D4C-B0DE-001DDC3E2DEA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="36680" yWindow="-1100" windowWidth="29160" windowHeight="19120" xr2:uid="{803B860E-67BF-7649-8198-70C53CB3C689}"/>
   </bookViews>
@@ -734,8 +734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{019EAE55-1733-DF40-9D68-6F8D4E15BE5E}">
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="118" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="118" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1568,20 +1568,20 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A46" s="11">
+      <c r="A46" s="27">
         <v>45</v>
       </c>
-      <c r="B46" s="12" t="s">
+      <c r="B46" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C46" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D46" s="13">
-        <v>43451</v>
-      </c>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12" t="s">
+      <c r="C46" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" s="28">
+        <v>43452</v>
+      </c>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7" t="s">
         <v>62</v>
       </c>
     </row>

--- a/code/RCMGUI_Issues.xlsx
+++ b/code/RCMGUI_Issues.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/frazibw1/Documents/RCM_Measurements/code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E4A9E26-7477-5D4C-B0DE-001DDC3E2DEA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0C3CFBC-5669-FB4A-A038-C0344249C60D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36680" yWindow="-1100" windowWidth="29160" windowHeight="19120" xr2:uid="{803B860E-67BF-7649-8198-70C53CB3C689}"/>
+    <workbookView xWindow="74240" yWindow="-2740" windowWidth="29160" windowHeight="19120" xr2:uid="{803B860E-67BF-7649-8198-70C53CB3C689}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="68">
   <si>
     <t>Issue #</t>
   </si>
@@ -226,6 +226,12 @@
   </si>
   <si>
     <t>Change Matlab print Settings for the new Settings structure</t>
+  </si>
+  <si>
+    <t>Move test mode selection to configuration file</t>
+  </si>
+  <si>
+    <t>Oep</t>
   </si>
 </sst>
 </file>
@@ -321,7 +327,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -389,13 +395,7 @@
     <xf numFmtId="14" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -411,18 +411,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -735,12 +724,12 @@
   <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" zoomScale="118" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="26"/>
+    <col min="1" max="1" width="10.83203125" style="24"/>
     <col min="2" max="2" width="86.83203125" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="10.83203125" style="3"/>
     <col min="5" max="5" width="44.1640625" style="3" customWidth="1"/>
@@ -748,7 +737,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1276,38 +1265,38 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="20">
+      <c r="A30" s="4">
         <v>29</v>
       </c>
-      <c r="B30" s="21" t="s">
+      <c r="B30" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="D30" s="22">
-        <v>43451</v>
-      </c>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21" t="s">
+      <c r="C30" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="6">
+        <v>43451</v>
+      </c>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="20">
+      <c r="A31" s="4">
         <v>30</v>
       </c>
-      <c r="B31" s="21" t="s">
+      <c r="B31" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C31" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="D31" s="22">
-        <v>43451</v>
-      </c>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21" t="s">
+      <c r="C31" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="6">
+        <v>43451</v>
+      </c>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1568,7 +1557,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A46" s="27">
+      <c r="A46" s="25">
         <v>45</v>
       </c>
       <c r="B46" s="7" t="s">
@@ -1577,7 +1566,7 @@
       <c r="C46" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D46" s="28">
+      <c r="D46" s="26">
         <v>43452</v>
       </c>
       <c r="E46" s="7"/>
@@ -1640,7 +1629,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A50" s="27">
+      <c r="A50" s="25">
         <v>49</v>
       </c>
       <c r="B50" s="7" t="s">
@@ -1649,7 +1638,7 @@
       <c r="C50" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D50" s="28">
+      <c r="D50" s="26">
         <v>43452</v>
       </c>
       <c r="E50" s="7"/>
@@ -1658,7 +1647,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A51" s="27">
+      <c r="A51" s="25">
         <v>50</v>
       </c>
       <c r="B51" s="7" t="s">
@@ -1667,7 +1656,7 @@
       <c r="C51" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D51" s="28">
+      <c r="D51" s="26">
         <v>43452</v>
       </c>
       <c r="E51" s="7"/>
@@ -1693,13 +1682,23 @@
         <v>61</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" s="25"/>
-      <c r="B53" s="23"/>
-      <c r="C53" s="23"/>
-      <c r="D53" s="23"/>
-      <c r="E53" s="23"/>
-      <c r="F53" s="23"/>
+    <row r="53" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A53" s="17">
+        <v>52</v>
+      </c>
+      <c r="B53" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C53" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D53" s="19">
+        <v>43452</v>
+      </c>
+      <c r="E53" s="18"/>
+      <c r="F53" s="18" t="s">
+        <v>62</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:F51" xr:uid="{2987A725-2C0C-1844-ABCD-954E1C3F77D6}"/>

--- a/code/RCMGUI_Issues.xlsx
+++ b/code/RCMGUI_Issues.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/frazibw1/Documents/RCM_Measurements/code/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminfrazier/Projects/RCM_Measurements/code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0C3CFBC-5669-FB4A-A038-C0344249C60D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94E7C1A2-0006-2245-9273-141032C8400E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="74240" yWindow="-2740" windowWidth="29160" windowHeight="19120" xr2:uid="{803B860E-67BF-7649-8198-70C53CB3C689}"/>
+    <workbookView xWindow="10300" yWindow="2460" windowWidth="29160" windowHeight="21880" xr2:uid="{803B860E-67BF-7649-8198-70C53CB3C689}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$52</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="66">
   <si>
     <t>Issue #</t>
   </si>
@@ -226,12 +226,6 @@
   </si>
   <si>
     <t>Change Matlab print Settings for the new Settings structure</t>
-  </si>
-  <si>
-    <t>Move test mode selection to configuration file</t>
-  </si>
-  <si>
-    <t>Oep</t>
   </si>
 </sst>
 </file>
@@ -327,7 +321,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -366,15 +360,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -721,15 +706,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{019EAE55-1733-DF40-9D68-6F8D4E15BE5E}">
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="118" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="118" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="24"/>
+    <col min="1" max="1" width="10.83203125" style="21"/>
     <col min="2" max="2" width="86.83203125" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="10.83203125" style="3"/>
     <col min="5" max="5" width="44.1640625" style="3" customWidth="1"/>
@@ -737,7 +722,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1139,55 +1124,55 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="14">
+      <c r="A23" s="8">
         <v>22</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" s="16">
-        <v>43451</v>
-      </c>
-      <c r="E23" s="15"/>
+      <c r="C23" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="10">
+        <v>43451</v>
+      </c>
+      <c r="E23" s="9"/>
       <c r="F23" s="9" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="17">
+      <c r="A24" s="14">
         <v>23</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="19">
-        <v>43451</v>
-      </c>
-      <c r="E24" s="18"/>
+      <c r="C24" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="16">
+        <v>43451</v>
+      </c>
+      <c r="E24" s="15"/>
       <c r="F24" s="12" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="17">
+      <c r="A25" s="14">
         <v>24</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25" s="19">
-        <v>43451</v>
-      </c>
-      <c r="E25" s="18"/>
+      <c r="C25" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="16">
+        <v>43451</v>
+      </c>
+      <c r="E25" s="15"/>
       <c r="F25" s="12" t="s">
         <v>62</v>
       </c>
@@ -1247,20 +1232,20 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" s="8">
+      <c r="A29" s="4">
         <v>28</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29" s="10">
-        <v>43451</v>
-      </c>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9" t="s">
+      <c r="C29" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="6">
+        <v>43452</v>
+      </c>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1301,20 +1286,20 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="11">
+      <c r="A32" s="4">
         <v>31</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C32" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D32" s="13">
-        <v>43451</v>
-      </c>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12" t="s">
+      <c r="C32" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="6">
+        <v>43451</v>
+      </c>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1485,38 +1470,38 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="8">
+      <c r="A42" s="4">
         <v>41</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C42" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D42" s="10">
-        <v>43451</v>
-      </c>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9" t="s">
+      <c r="C42" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="6">
+        <v>43452</v>
+      </c>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43" s="8">
+      <c r="A43" s="4">
         <v>42</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C43" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D43" s="10">
-        <v>43451</v>
-      </c>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9" t="s">
+      <c r="C43" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" s="6">
+        <v>43452</v>
+      </c>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1539,25 +1524,25 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A45" s="20">
+      <c r="A45" s="17">
         <v>44</v>
       </c>
-      <c r="B45" s="21" t="s">
+      <c r="B45" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C45" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="D45" s="22">
-        <v>43451</v>
-      </c>
-      <c r="E45" s="21"/>
-      <c r="F45" s="21" t="s">
+      <c r="C45" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" s="19">
+        <v>43451</v>
+      </c>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A46" s="25">
+      <c r="A46" s="22">
         <v>45</v>
       </c>
       <c r="B46" s="7" t="s">
@@ -1566,7 +1551,7 @@
       <c r="C46" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D46" s="26">
+      <c r="D46" s="23">
         <v>43452</v>
       </c>
       <c r="E46" s="7"/>
@@ -1629,7 +1614,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A50" s="25">
+      <c r="A50" s="22">
         <v>49</v>
       </c>
       <c r="B50" s="7" t="s">
@@ -1638,7 +1623,7 @@
       <c r="C50" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D50" s="26">
+      <c r="D50" s="23">
         <v>43452</v>
       </c>
       <c r="E50" s="7"/>
@@ -1647,7 +1632,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A51" s="25">
+      <c r="A51" s="22">
         <v>50</v>
       </c>
       <c r="B51" s="7" t="s">
@@ -1656,7 +1641,7 @@
       <c r="C51" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D51" s="26">
+      <c r="D51" s="23">
         <v>43452</v>
       </c>
       <c r="E51" s="7"/>
@@ -1682,26 +1667,8 @@
         <v>61</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A53" s="17">
-        <v>52</v>
-      </c>
-      <c r="B53" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="C53" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="D53" s="19">
-        <v>43452</v>
-      </c>
-      <c r="E53" s="18"/>
-      <c r="F53" s="18" t="s">
-        <v>62</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:F51" xr:uid="{2987A725-2C0C-1844-ABCD-954E1C3F77D6}"/>
+  <autoFilter ref="A1:F52" xr:uid="{2987A725-2C0C-1844-ABCD-954E1C3F77D6}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/code/RCMGUI_Issues.xlsx
+++ b/code/RCMGUI_Issues.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminfrazier/Projects/RCM_Measurements/code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94E7C1A2-0006-2245-9273-141032C8400E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{008E9031-F0F3-F041-A535-753D0C8B3448}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10300" yWindow="2460" windowWidth="29160" windowHeight="21880" xr2:uid="{803B860E-67BF-7649-8198-70C53CB3C689}"/>
   </bookViews>
@@ -709,7 +709,7 @@
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" zoomScale="118" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1034,20 +1034,20 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="11">
+      <c r="A18" s="4">
         <v>17</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="13">
-        <v>43451</v>
-      </c>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12" t="s">
+      <c r="C18" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="6">
+        <v>43452</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5" t="s">
         <v>62</v>
       </c>
     </row>

--- a/code/RCMGUI_Issues.xlsx
+++ b/code/RCMGUI_Issues.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminfrazier/Projects/RCM_Measurements/code/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/frazibw1/Documents/RCM_Measurements/code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{008E9031-F0F3-F041-A535-753D0C8B3448}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70A9DD4A-52E1-D84E-9FDB-3572AD5059C2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10300" yWindow="2460" windowWidth="29160" windowHeight="21880" xr2:uid="{803B860E-67BF-7649-8198-70C53CB3C689}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16720" xr2:uid="{803B860E-67BF-7649-8198-70C53CB3C689}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="74">
   <si>
     <t>Issue #</t>
   </si>
@@ -226,6 +226,30 @@
   </si>
   <si>
     <t>Change Matlab print Settings for the new Settings structure</t>
+  </si>
+  <si>
+    <t>Add indicator that data is not real until measurements taken</t>
+  </si>
+  <si>
+    <t>Reload the specified calibration file after resetting the PNA after calibration</t>
+  </si>
+  <si>
+    <t>Change timestamp to remove underscores between hours/minutes/seconds</t>
+  </si>
+  <si>
+    <t>Reloading the configuration with the full hardware causes the program to crash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calibration routine does not generate good cals </t>
+  </si>
+  <si>
+    <t>The eCal wizard provides results that appear good</t>
+  </si>
+  <si>
+    <t>PNA Error -113 (Undefined Header) with Time Gated Measurements</t>
+  </si>
+  <si>
+    <t>On Mac, data is saved to Package Contents</t>
   </si>
 </sst>
 </file>
@@ -706,10 +730,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{019EAE55-1733-DF40-9D68-6F8D4E15BE5E}">
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="118" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="118" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1667,6 +1691,134 @@
         <v>61</v>
       </c>
     </row>
+    <row r="53" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A53" s="8">
+        <v>52</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D53" s="10">
+        <v>43453</v>
+      </c>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A54" s="8">
+        <v>53</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D54" s="10">
+        <v>43453</v>
+      </c>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A55" s="4">
+        <v>54</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55" s="6">
+        <v>43453</v>
+      </c>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A56" s="17">
+        <v>55</v>
+      </c>
+      <c r="B56" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C56" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D56" s="19">
+        <v>43453</v>
+      </c>
+      <c r="E56" s="18"/>
+      <c r="F56" s="18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A57" s="17">
+        <v>56</v>
+      </c>
+      <c r="B57" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C57" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D57" s="19">
+        <v>43453</v>
+      </c>
+      <c r="E57" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="F57" s="18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A58" s="17">
+        <v>57</v>
+      </c>
+      <c r="B58" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C58" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D58" s="19">
+        <v>43453</v>
+      </c>
+      <c r="E58" s="18"/>
+      <c r="F58" s="18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A59" s="8">
+        <v>58</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D59" s="10">
+        <v>43453</v>
+      </c>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:F52" xr:uid="{2987A725-2C0C-1844-ABCD-954E1C3F77D6}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/code/RCMGUI_Issues.xlsx
+++ b/code/RCMGUI_Issues.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/frazibw1/Documents/RCM_Measurements/code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70A9DD4A-52E1-D84E-9FDB-3572AD5059C2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE203E62-A786-3D4B-BA2D-4864F92A960B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16720" xr2:uid="{803B860E-67BF-7649-8198-70C53CB3C689}"/>
   </bookViews>
@@ -733,7 +733,7 @@
   <dimension ref="A1:F59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" zoomScale="118" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1784,20 +1784,20 @@
       </c>
     </row>
     <row r="58" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A58" s="17">
+      <c r="A58" s="4">
         <v>57</v>
       </c>
-      <c r="B58" s="18" t="s">
+      <c r="B58" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C58" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D58" s="19">
+      <c r="C58" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58" s="6">
         <v>43453</v>
       </c>
-      <c r="E58" s="18"/>
-      <c r="F58" s="18" t="s">
+      <c r="E58" s="5"/>
+      <c r="F58" s="5" t="s">
         <v>63</v>
       </c>
     </row>
